--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學1.xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學1.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="skill_info 還是出現亂碼 number_line_s" sheetId="1" r:id="rId4"/>
+    <sheet name="skill_info 還是出現亂碼 number_line_s" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -403,17 +411,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,36 +438,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -641,20 +664,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -691,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -703,16 +734,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -720,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -732,16 +763,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -761,16 +792,16 @@
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -778,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -790,16 +821,16 @@
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -807,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -819,16 +850,16 @@
         <v>19</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -836,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -848,16 +879,16 @@
         <v>19</v>
       </c>
       <c r="G7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -865,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -877,16 +908,16 @@
         <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -894,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -906,16 +937,16 @@
         <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -923,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -935,16 +966,16 @@
         <v>19</v>
       </c>
       <c r="G10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -952,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -964,16 +995,16 @@
         <v>25</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -981,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -993,16 +1024,16 @@
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1010,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1022,16 +1053,16 @@
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1051,16 +1082,16 @@
         <v>30</v>
       </c>
       <c r="G14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1068,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1080,16 +1111,16 @@
         <v>33</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1109,16 +1140,16 @@
         <v>33</v>
       </c>
       <c r="G16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1126,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1138,16 +1169,16 @@
         <v>33</v>
       </c>
       <c r="G17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1155,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1167,16 +1198,16 @@
         <v>38</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1184,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1196,16 +1227,16 @@
         <v>38</v>
       </c>
       <c r="G19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1213,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1225,16 +1256,16 @@
         <v>41</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1242,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1254,16 +1285,16 @@
         <v>41</v>
       </c>
       <c r="G21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1271,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1283,16 +1314,16 @@
         <v>45</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1300,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1312,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1329,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1341,16 +1372,16 @@
         <v>47</v>
       </c>
       <c r="G24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1358,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1370,16 +1401,16 @@
         <v>47</v>
       </c>
       <c r="G25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1387,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1399,16 +1430,16 @@
         <v>47</v>
       </c>
       <c r="G26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1416,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1428,16 +1459,16 @@
         <v>53</v>
       </c>
       <c r="G27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1445,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1457,16 +1488,16 @@
         <v>53</v>
       </c>
       <c r="G28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -1474,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1486,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="G29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1503,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1515,16 +1546,16 @@
         <v>53</v>
       </c>
       <c r="G30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1532,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1544,16 +1575,16 @@
         <v>58</v>
       </c>
       <c r="G31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -1561,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1573,16 +1604,16 @@
         <v>58</v>
       </c>
       <c r="G32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1590,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1602,16 +1633,16 @@
         <v>61</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1619,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -1631,16 +1662,16 @@
         <v>61</v>
       </c>
       <c r="G34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1648,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -1660,16 +1691,16 @@
         <v>64</v>
       </c>
       <c r="G35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -1677,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -1689,16 +1720,16 @@
         <v>64</v>
       </c>
       <c r="G36" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -1706,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -1718,16 +1749,16 @@
         <v>68</v>
       </c>
       <c r="G37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1735,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -1747,16 +1778,16 @@
         <v>68</v>
       </c>
       <c r="G38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1764,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -1776,16 +1807,16 @@
         <v>68</v>
       </c>
       <c r="G39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -1793,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -1805,16 +1836,16 @@
         <v>72</v>
       </c>
       <c r="G40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1822,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -1834,16 +1865,16 @@
         <v>72</v>
       </c>
       <c r="G41" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I41" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -1851,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -1863,16 +1894,16 @@
         <v>75</v>
       </c>
       <c r="G42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1880,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -1892,16 +1923,16 @@
         <v>78</v>
       </c>
       <c r="G43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -1909,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -1921,16 +1952,16 @@
         <v>78</v>
       </c>
       <c r="G44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I44" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -1938,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -1950,16 +1981,16 @@
         <v>78</v>
       </c>
       <c r="G45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H45" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I45" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -1967,7 +1998,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -1979,16 +2010,16 @@
         <v>82</v>
       </c>
       <c r="G46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -2008,16 +2039,16 @@
         <v>82</v>
       </c>
       <c r="G47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I47" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -2025,7 +2056,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -2037,16 +2068,16 @@
         <v>82</v>
       </c>
       <c r="G48" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H48" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I48" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -2054,7 +2085,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -2066,16 +2097,16 @@
         <v>87</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
@@ -2083,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -2095,16 +2126,16 @@
         <v>87</v>
       </c>
       <c r="G50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I50" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
@@ -2112,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -2124,16 +2155,16 @@
         <v>87</v>
       </c>
       <c r="G51" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H51" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I51" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -2141,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -2153,16 +2184,16 @@
         <v>91</v>
       </c>
       <c r="G52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>92</v>
       </c>
@@ -2170,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -2182,16 +2213,16 @@
         <v>91</v>
       </c>
       <c r="G53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I53" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
@@ -2199,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -2211,16 +2242,16 @@
         <v>91</v>
       </c>
       <c r="G54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H54" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I54" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>94</v>
       </c>
@@ -2228,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -2240,16 +2271,16 @@
         <v>95</v>
       </c>
       <c r="G55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -2257,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -2269,16 +2300,16 @@
         <v>95</v>
       </c>
       <c r="G56" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I56" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -2286,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -2298,16 +2329,16 @@
         <v>95</v>
       </c>
       <c r="G57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H57" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I57" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -2315,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -2327,16 +2358,16 @@
         <v>99</v>
       </c>
       <c r="G58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I58" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -2344,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -2356,16 +2387,16 @@
         <v>102</v>
       </c>
       <c r="G59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I59" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -2373,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -2385,16 +2416,16 @@
         <v>102</v>
       </c>
       <c r="G60" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I60" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>104</v>
       </c>
@@ -2402,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -2414,16 +2445,16 @@
         <v>105</v>
       </c>
       <c r="G61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I61" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
@@ -2431,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
@@ -2443,16 +2474,16 @@
         <v>105</v>
       </c>
       <c r="G62" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I62" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>107</v>
       </c>
@@ -2460,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
@@ -2472,16 +2503,16 @@
         <v>108</v>
       </c>
       <c r="G63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I63" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
@@ -2489,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="C64" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
@@ -2501,16 +2532,16 @@
         <v>108</v>
       </c>
       <c r="G64" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H64" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I64" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>110</v>
       </c>
@@ -2518,7 +2549,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -2530,16 +2561,16 @@
         <v>111</v>
       </c>
       <c r="G65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I65" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>112</v>
       </c>
@@ -2547,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -2559,16 +2590,16 @@
         <v>114</v>
       </c>
       <c r="G66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I66" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>115</v>
       </c>
@@ -2576,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -2588,16 +2619,16 @@
         <v>114</v>
       </c>
       <c r="G67" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H67" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I67" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>116</v>
       </c>
@@ -2605,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="C68" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -2617,16 +2648,16 @@
         <v>117</v>
       </c>
       <c r="G68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I68" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -2634,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="C69" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -2646,16 +2677,16 @@
         <v>117</v>
       </c>
       <c r="G69" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I69" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>119</v>
       </c>
@@ -2663,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="C70" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -2675,16 +2706,16 @@
         <v>120</v>
       </c>
       <c r="G70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
@@ -2692,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -2704,16 +2735,16 @@
         <v>120</v>
       </c>
       <c r="G71" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H71" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I71" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>122</v>
       </c>
@@ -2721,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -2733,16 +2764,16 @@
         <v>124</v>
       </c>
       <c r="G72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I72" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>125</v>
       </c>
@@ -2750,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -2762,16 +2793,16 @@
         <v>126</v>
       </c>
       <c r="G73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I73" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>127</v>
       </c>
@@ -2779,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -2791,16 +2822,16 @@
         <v>126</v>
       </c>
       <c r="G74" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I74" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2808,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -2820,16 +2851,18 @@
         <v>126</v>
       </c>
       <c r="G75" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H75" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I75" s="1">
-        <v>1.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>